--- a/Results/Mitigation_reverse/results_df_location_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_location_reverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,165 +436,150 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distance_km</t>
+          <t>cand_gender</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>match_score</t>
+          <t>cand_age_bucket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_rank</t>
+          <t>cand_domicile_province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cand_gender</t>
+          <t>cand_domicile_region</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cand_age_bucket</t>
+          <t>job_contract_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_province</t>
+          <t>job_work_province</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_region</t>
+          <t>Spagnolo</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>job_contract_type</t>
+          <t>Ebraico</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>job_work_province</t>
+          <t>Greco</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Catalano</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rumeno</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Svedese</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Finlandese</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Polacco</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Norvegese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Macedone</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Pakistano - Urdu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Tedesco</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Spagnolo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Greco</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Polacco</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Sloveno</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Bulgaro</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Persiano</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Italiano</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Macedone</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Sloveno</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Catalano</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Arabo</t>
+          <t>Serbo</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Norvegese</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>same_location</t>
         </is>
@@ -602,31 +587,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>285365.722165137</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19077.87431493</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17048</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17048</v>
+        <v>25498</v>
       </c>
       <c r="G2" t="n">
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25498</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -689,45 +674,36 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16360.150209128</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1957.1387005</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1159</v>
+        <v>3212</v>
       </c>
       <c r="G3" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3212</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -739,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -754,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -781,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -790,54 +766,45 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94292.971127882</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3937.46996271</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5713</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2177</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5713</v>
+        <v>6671</v>
       </c>
       <c r="G4" t="n">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6671</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -855,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -867,22 +834,22 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -891,27 +858,18 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245510.548200392</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>17391.54295537</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>12142</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -920,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12142</v>
+        <v>17815</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -929,53 +887,53 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>17815</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
@@ -983,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -992,27 +950,18 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>310482.718882559</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>20669.6421027</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9573</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1021,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9573</v>
+        <v>18356</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1030,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18356</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1042,32 +991,32 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1075,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1093,45 +1042,36 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21713.292789294</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>676.95993989</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1601</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1601</v>
+        <v>2695</v>
       </c>
       <c r="G7" t="n">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1140,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1155,38 +1095,38 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1194,45 +1134,36 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28003.139984546</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1615.21743202</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1483</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1483</v>
+        <v>2229</v>
       </c>
       <c r="G8" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1256,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1271,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1295,45 +1226,36 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>351984.14264499</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>23236.52921232</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15461</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4450</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>15461</v>
+        <v>23152</v>
       </c>
       <c r="G9" t="n">
-        <v>4450</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23152</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1345,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1396,48 +1318,39 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>302308.135712442</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>14006.51595667</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12415</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9536</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12415</v>
+        <v>6785</v>
       </c>
       <c r="G10" t="n">
-        <v>9536</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6785</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1446,23 +1359,23 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
@@ -1473,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1497,45 +1410,36 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>367062.138158544</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>26065.10207234</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>35878</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>35878</v>
+        <v>36946</v>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36946</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1550,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1580,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1598,45 +1502,36 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91229.061005569</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>4085.423770930001</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6063</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>6063</v>
+        <v>12126</v>
       </c>
       <c r="G12" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12126</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1648,40 +1543,40 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>5</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1690,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1699,27 +1594,18 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>297227.970173596</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>17801.34612439</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23045</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1728,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23045</v>
+        <v>9441</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1737,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9441</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1749,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1764,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1782,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1800,45 +1686,36 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>192355.542651739</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>15329.31188221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2986</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4311</v>
+        <v>8190</v>
       </c>
       <c r="G14" t="n">
-        <v>2986</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8190</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1853,37 +1730,37 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1901,48 +1778,39 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>276429.617131787</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>8524.108424999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>18458</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>18458</v>
+        <v>25562</v>
       </c>
       <c r="G15" t="n">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25562</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1951,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1966,34 +1834,34 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2002,87 +1870,78 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63967.024407695</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>5929.42501056</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4437</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1776</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4437</v>
+        <v>11833</v>
       </c>
       <c r="G16" t="n">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11833</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>2</v>
@@ -2103,116 +1962,6 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>19090.446155284</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1521.84652149</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7605</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7387</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Results/Mitigation_reverse/results_df_location_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_location_reverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,120 +466,115 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Norvegese</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Catalano</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Macedone</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Persiano</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pakistano - Urdu</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Svedese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Polacco</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Tedesco</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Finlandese</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Ebraico</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Spagnolo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Serbo</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Greco</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Catalano</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaro</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rumeno</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Polacco</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Norvegese</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Italiano</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Macedone</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Pakistano - Urdu</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Tedesco</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Sloveno</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Bulgaro</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Persiano</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>same_location</t>
         </is>
@@ -593,22 +588,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17048</v>
+        <v>9541</v>
       </c>
       <c r="D2" t="n">
-        <v>3245</v>
+        <v>3382</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25498</v>
+        <v>3025</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -671,9 +666,6 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -685,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1159</v>
+        <v>943</v>
       </c>
       <c r="D3" t="n">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3212</v>
+        <v>1531</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -703,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -721,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -733,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -757,15 +749,12 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -777,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5713</v>
+        <v>3934</v>
       </c>
       <c r="D4" t="n">
-        <v>2177</v>
+        <v>3250</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6671</v>
+        <v>3648</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -798,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -822,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -834,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -846,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -855,9 +844,6 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12142</v>
+        <v>17764</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17815</v>
+        <v>2947</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -902,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -932,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -941,15 +927,12 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -961,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9573</v>
+        <v>9130</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18356</v>
+        <v>3797</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -979,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -991,25 +974,25 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1027,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1039,9 +1022,6 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1053,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="D7" t="n">
-        <v>789</v>
+        <v>177</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2695</v>
+        <v>1643</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1071,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1089,40 +1069,40 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>2</v>
@@ -1131,9 +1111,6 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1483</v>
+        <v>2581</v>
       </c>
       <c r="D8" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1163,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1202,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1223,9 +1200,6 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1237,22 +1211,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15461</v>
+        <v>14744</v>
       </c>
       <c r="D9" t="n">
-        <v>4450</v>
+        <v>3137</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23152</v>
+        <v>9294</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1267,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1285,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1315,9 +1289,6 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1329,76 +1300,76 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>12415</v>
+        <v>15171</v>
       </c>
       <c r="D10" t="n">
-        <v>9536</v>
+        <v>3578</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6785</v>
+        <v>424</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1407,9 +1378,6 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1421,28 +1389,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>35878</v>
+        <v>30535</v>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>2996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36946</v>
+        <v>15974</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1454,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1487,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1499,9 +1467,6 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1513,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6063</v>
+        <v>4885</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>5298</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12126</v>
+        <v>1068</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1531,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1558,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1591,9 +1556,6 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1605,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23045</v>
+        <v>15308</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2582</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9441</v>
+        <v>3614</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1623,56 +1585,56 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
@@ -1683,9 +1645,6 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1697,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4311</v>
+        <v>6400</v>
       </c>
       <c r="D14" t="n">
-        <v>2986</v>
+        <v>1177</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8190</v>
+        <v>1420</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1715,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1730,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1739,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1775,9 +1734,6 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>18458</v>
+        <v>20256</v>
       </c>
       <c r="D15" t="n">
-        <v>2269</v>
+        <v>2344</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25562</v>
+        <v>483</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1807,69 +1763,66 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1881,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4437</v>
+        <v>2752</v>
       </c>
       <c r="D16" t="n">
-        <v>1776</v>
+        <v>382</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11833</v>
+        <v>7916</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1908,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1920,40 +1873,40 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -1961,7 +1914,93 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9898</v>
+      </c>
+      <c r="D17" t="n">
+        <v>216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>166</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Results/Mitigation_reverse/results_df_location_reverse.xlsx
+++ b/Results/Mitigation_reverse/results_df_location_reverse.xlsx
@@ -588,22 +588,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9541</v>
+        <v>46.03</v>
       </c>
       <c r="D2" t="n">
-        <v>3382</v>
+        <v>22.64</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3025</v>
+        <v>14.21</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>943</v>
+        <v>76.5</v>
       </c>
       <c r="D3" t="n">
-        <v>799</v>
+        <v>74.67</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1531</v>
+        <v>27.94</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -695,25 +695,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0.39</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3934</v>
+        <v>52.42</v>
       </c>
       <c r="D4" t="n">
-        <v>3250</v>
+        <v>53.3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3648</v>
+        <v>51.66</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17764</v>
+        <v>66.73</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>0.89</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2947</v>
+        <v>18.26</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9130</v>
+        <v>47.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1840</v>
+        <v>12.04</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3797</v>
+        <v>17.57</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1593</v>
+        <v>77.11</v>
       </c>
       <c r="D7" t="n">
-        <v>177</v>
+        <v>22.74</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1643</v>
+        <v>50.44</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2581</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>207</v>
+        <v>13.53</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14744</v>
+        <v>47.44</v>
       </c>
       <c r="D9" t="n">
-        <v>3137</v>
+        <v>15.58</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9294</v>
+        <v>27.09</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1300,28 +1300,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15171</v>
+        <v>57.14</v>
       </c>
       <c r="D10" t="n">
-        <v>3578</v>
+        <v>16.43</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>424</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>30535</v>
+        <v>53.76</v>
       </c>
       <c r="D11" t="n">
-        <v>2996</v>
+        <v>16.22</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15974</v>
+        <v>37.78</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4885</v>
+        <v>83.72</v>
       </c>
       <c r="D12" t="n">
-        <v>5298</v>
+        <v>56.98</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1068</v>
+        <v>9.75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15308</v>
+        <v>53.5</v>
       </c>
       <c r="D13" t="n">
-        <v>2582</v>
+        <v>15.32</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3614</v>
+        <v>12.9</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1656,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6400</v>
+        <v>41.72</v>
       </c>
       <c r="D14" t="n">
-        <v>1177</v>
+        <v>12.56</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1420</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>20256</v>
+        <v>72.39</v>
       </c>
       <c r="D15" t="n">
-        <v>2344</v>
+        <v>16.08</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>483</v>
+        <v>1.12</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1834,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2752</v>
+        <v>52.65</v>
       </c>
       <c r="D16" t="n">
-        <v>382</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7916</v>
+        <v>45.36</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>0.11</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9898</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>216</v>
+        <v>23.55</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>166</v>
+        <v>3.17</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0.27</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
